--- a/Fourth_Match/4.RM3-MAL2 Stat 19.8.18.xlsx
+++ b/Fourth_Match/4.RM3-MAL2 Stat 19.8.18.xlsx
@@ -331,18 +331,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="26" min="11" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="26" min="11" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1132,22 +1132,24 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.6428571428571"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1192,7 +1194,9 @@
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="n">
+        <v>0.175175786616693</v>
+      </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="F2" s="8"/>
@@ -1207,7 +1211,9 @@
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="n">
+        <v>0.589435431269796</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>

--- a/Fourth_Match/4.RM3-MAL2 Stat 19.8.18.xlsx
+++ b/Fourth_Match/4.RM3-MAL2 Stat 19.8.18.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t xml:space="preserve">Player Name</t>
   </si>
@@ -53,79 +53,85 @@
     <t xml:space="preserve">Closeness Centrality</t>
   </si>
   <si>
-    <t xml:space="preserve">DLC25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deportivo La Coruña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las Palmas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP9</t>
+    <t xml:space="preserve">RM13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real Madrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Málaga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL9</t>
   </si>
   <si>
     <t xml:space="preserve">Betweenness Centrality</t>
@@ -323,26 +329,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="26" min="11" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="13.6326530612245"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="11" style="1" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="13.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -385,28 +391,28 @@
         <v>11</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.0215968511863958</v>
+        <v>0.0315998210550195</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0.256324425860469</v>
+        <v>0.382951553050104</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>0.833333313465118</v>
+        <v>0.75</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0</v>
+        <v>0.00568181818181818</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.578947368421053</v>
+        <v>0.647058823529412</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -417,28 +423,28 @@
         <v>11</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>0.0757103901763619</v>
+        <v>0.12191604412054</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>0.497364961075791</v>
+        <v>0.842714522043144</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>0.607142865657806</v>
+        <v>0.733333349227905</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.0343181818181818</v>
+        <v>0.0457034632034632</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.733333333333333</v>
+        <v>0.916666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -449,28 +455,28 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0814832996121498</v>
+        <v>0.0879901166563805</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.565481574037053</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.588888883590698</v>
+        <v>0.763636350631714</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.0925108225108225</v>
+        <v>0.0410569985569986</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.916666666666667</v>
+        <v>0.846153846153846</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -481,28 +487,28 @@
         <v>11</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.131960166331768</v>
+        <v>0.0710890532576292</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1</v>
+        <v>0.733476246288346</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.590909063816071</v>
+        <v>0.781818211078644</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.0583441558441559</v>
+        <v>0.0307936507936508</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0.733333333333333</v>
+        <v>0.916666666666667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -513,28 +519,28 @@
         <v>11</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.10477487333052</v>
+        <v>0.117094400038953</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.748707165849302</v>
+        <v>0.812973240664531</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.611111104488373</v>
+        <v>0.733333349227905</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.075530303030303</v>
+        <v>0.0441883116883117</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.846153846153846</v>
+        <v>0.916666666666667</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -545,28 +551,28 @@
         <v>11</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>21</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.107959286464716</v>
+        <v>0.0521740684685124</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.708629412178936</v>
+        <v>0.638640427284503</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.732142865657806</v>
+        <v>0.805555582046509</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.0125108225108225</v>
+        <v>0.0116017316017316</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.6875</v>
+        <v>0.785714285714286</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -577,25 +583,25 @@
         <v>11</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.113804186198036</v>
+        <v>0.0877509880544072</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.734309975942253</v>
+        <v>0.960715938254429</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.666666686534882</v>
+        <v>0.833333313465118</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.0481926406926407</v>
+        <v>0.0198701298701299</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>0.916666666666667</v>
@@ -609,28 +615,28 @@
         <v>11</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0824667882468626</v>
+        <v>0.105070227017406</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.809918436986844</v>
+        <v>0.960715938254429</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.678571403026581</v>
+        <v>0.844444453716278</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>0.0131168831168831</v>
+        <v>0.0174350649350649</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>0.647058823529412</v>
+        <v>0.846153846153846</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -641,28 +647,28 @@
         <v>11</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06770758771834</v>
+        <v>0.0991730027283342</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.791143215047246</v>
+        <v>0.960715938254429</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.736111104488373</v>
+        <v>0.844444453716278</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0.0127380952380952</v>
+        <v>0.0155411255411255</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.647058823529412</v>
+        <v>0.846153846153846</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -673,28 +679,28 @@
         <v>11</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0795784913427912</v>
+        <v>0.0787316987261892</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.931158205447758</v>
+        <v>0.870020836175736</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.722222208976746</v>
+        <v>0.866666674613953</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.0377380952380952</v>
+        <v>0.00773809523809524</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.733333333333333</v>
+        <v>0.785714285714286</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -705,25 +711,25 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.111617671017671</v>
+        <v>0.0540788879878755</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.776996420168832</v>
+        <v>0.798253873862038</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.678571403026581</v>
+        <v>0.902777791023254</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.0570454545454546</v>
+        <v>0.0053030303030303</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>0.785714285714286</v>
@@ -737,28 +743,28 @@
         <v>11</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.0213404083743885</v>
+        <v>0.0933316918887535</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.291659440705316</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>0.696428596973419</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>0.00340909090909091</v>
+        <v>0.895621400629197</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.888888895511627</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.00963203463203463</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0.6875</v>
+        <v>0.785714285714286</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -769,28 +775,28 @@
         <v>24</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0439125716228337</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.516834715421784</v>
+        <v>0.042998038967373</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.471686022786134</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.928571403026581</v>
+        <v>0.714285731315613</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0.00282186948853616</v>
+        <v>0.0132756132756133</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -801,28 +807,28 @@
         <v>24</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0955572852204458</v>
+        <v>0.0621840593407476</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.924270103722648</v>
+        <v>0.671096224387162</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.819444417953491</v>
+        <v>0.708333313465118</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.0168518518518519</v>
+        <v>0.0284902597402597</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.833333333333333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -833,28 +839,28 @@
         <v>24</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.106199856037821</v>
+        <v>0.0561041776444089</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.909729989375998</v>
+        <v>0.763928550908906</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.822222232818604</v>
+        <v>0.722222208976746</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.0214197530864197</v>
+        <v>0.0416937229437229</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.909090909090909</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -865,28 +871,28 @@
         <v>24</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.112597418447244</v>
+        <v>0.141971627044326</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.909729989375998</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>0.811111092567444</v>
+        <v>0.742883584835036</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.655555546283722</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.0248589065255732</v>
+        <v>0.0463113275613276</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -897,28 +903,28 @@
         <v>24</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.113993944256721</v>
+        <v>0.118854548215896</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.716131731001837</v>
+        <v>1</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.819444417953491</v>
+        <v>0.568181812763214</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>0.0174074074074074</v>
+        <v>0.114366883116883</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>0.909090909090909</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -929,28 +935,28 @@
         <v>24</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.097053371537449</v>
+        <v>0.114366883116883</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.800000011920929</v>
+        <v>0.663636386394501</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>0.0398589065255732</v>
+        <v>0.0512896825396825</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -961,60 +967,60 @@
         <v>24</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0823752551832065</v>
+        <v>0.0760977077682192</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.909729989375998</v>
+        <v>0.717595969028162</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.822222232818604</v>
+        <v>0.821428596973419</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.0148589065255732</v>
+        <v>0.00689935064935065</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.909090909090909</v>
+        <v>0.705882352941176</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="0" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0883313896177773</v>
+        <v>0.104601062985781</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.845501720706916</v>
+        <v>0.875137128513278</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.833333313465118</v>
+        <v>0.654545426368713</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.0268959435626102</v>
+        <v>0.0300595238095238</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.909090909090909</v>
+        <v>0.705882352941176</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1025,28 +1031,28 @@
         <v>24</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.104808722550217</v>
+        <v>0.0415547351162397</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.945150228496943</v>
+        <v>0.361312942442177</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.888888895511627</v>
+        <v>0.899999976158142</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.0155070546737213</v>
+        <v>0.00220959595959596</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.833333333333333</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1057,66 +1063,150 @@
         <v>24</v>
       </c>
       <c r="C23" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D23" s="5" t="n">
         <v>36</v>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>25</v>
-      </c>
       <c r="E23" s="5" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0845157885218358</v>
+        <v>0.124804441882095</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.945150228496943</v>
+        <v>0.9867474649124</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.875</v>
+        <v>0.581818163394928</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.0168959435626102</v>
+        <v>0.101316738816739</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.909090909090909</v>
+        <v>0.857142857142857</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.0706543970044482</v>
+        <v>0.0736582970051354</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.855941783094063</v>
+        <v>0.82265309387375</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>0.944444417953491</v>
+        <v>0.785714268684387</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.00262345679012346</v>
+        <v>0.0186327561327561</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>0.666666666666667</v>
-      </c>
-    </row>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0.0388826834433306</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0.647084833362317</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>0.904761910438538</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>0.631578947368421</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0.0215663532935477</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0.354251214384147</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1131,25 +1221,25 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,13 +1250,13 @@
         <v>9</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1175,60 +1265,101 @@
         <v>3</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0.175175786616693</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="C2" s="8" t="n">
+        <v>0.0267178276269185</v>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F2" s="8" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>0.812</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>450</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L2" s="9" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>0.589435431269796</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="C3" s="8" t="n">
+        <v>0.0860186688311688</v>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>0.964028776978417</v>
+      </c>
+      <c r="F3" s="8" t="n">
+        <v>1.01079136690647</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>0.964028776978417</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>304</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L3" s="9" t="n">
+        <v>0.4</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/Fourth_Match/4.RM3-MAL2 Stat 19.8.18.xlsx
+++ b/Fourth_Match/4.RM3-MAL2 Stat 19.8.18.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Individual" sheetId="1" state="visible" r:id="rId2"/>
@@ -331,8 +331,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -347,7 +347,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="11" style="1" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="11" style="1" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="13.63"/>
   </cols>
   <sheetData>
@@ -1221,8 +1221,8 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="1" sqref="C31:D45 E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1294,7 +1294,7 @@
         <v>0.788</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0.458333333333333</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="F2" s="8" t="n">
         <v>0.583333333333333</v>
@@ -1332,7 +1332,7 @@
         <v>0.628</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.964028776978417</v>
+        <v>1.92805755395683</v>
       </c>
       <c r="F3" s="8" t="n">
         <v>1.01079136690647</v>
